--- a/Project assest list.xlsx
+++ b/Project assest list.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Knight+Player" sheetId="1" r:id="rId1"/>
     <sheet name="Background" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>In progress</t>
   </si>
@@ -42,9 +42,6 @@
     <t>sound death</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t xml:space="preserve">Script health </t>
   </si>
   <si>
@@ -66,12 +63,6 @@
     <t>Implemented</t>
   </si>
   <si>
-    <t>Kat</t>
-  </si>
-  <si>
-    <t>Ryan</t>
-  </si>
-  <si>
     <t xml:space="preserve">Category </t>
   </si>
   <si>
@@ -97,6 +88,36 @@
   </si>
   <si>
     <t>Not Started/Assigned To</t>
+  </si>
+  <si>
+    <t>purple circle flower</t>
+  </si>
+  <si>
+    <t>yellow tall flower</t>
+  </si>
+  <si>
+    <t>grass</t>
+  </si>
+  <si>
+    <t>light bush</t>
+  </si>
+  <si>
+    <t>dark bush</t>
+  </si>
+  <si>
+    <t>4 leaf tree</t>
+  </si>
+  <si>
+    <t>foreground</t>
+  </si>
+  <si>
+    <t>blue flower</t>
+  </si>
+  <si>
+    <t>wagon</t>
+  </si>
+  <si>
+    <t>middle green bush</t>
   </si>
 </sst>
 </file>
@@ -460,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,25 +501,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -515,89 +536,49 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -608,8 +589,12 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -618,7 +603,9 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -627,6 +614,9 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -634,6 +624,9 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -641,6 +634,9 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -648,72 +644,87 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>10</v>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -730,6 +741,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B0C5AAC1B3A5834698B991C8B7BE0A43" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d8bfae07456ed53bf096f88a87e9c3b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2c372ca1-4d00-4da0-9d60-1d24f5b7546b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b3317282adf720fe49703ecb68c6f20" ns2:_="">
     <xsd:import namespace="2c372ca1-4d00-4da0-9d60-1d24f5b7546b"/>
@@ -875,22 +901,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB2AA6DC-D7DC-43A1-8030-BE38C0100496}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2515DB3B-AFD4-479F-850C-E15ACF9C8EE2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2c372ca1-4d00-4da0-9d60-1d24f5b7546b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D8B4A51-A72D-4F05-84AE-D0EEBFFC2F6D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -906,28 +941,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2515DB3B-AFD4-479F-850C-E15ACF9C8EE2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2c372ca1-4d00-4da0-9d60-1d24f5b7546b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB2AA6DC-D7DC-43A1-8030-BE38C0100496}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Project assest list.xlsx
+++ b/Project assest list.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
   <si>
     <t>In progress</t>
   </si>
@@ -118,6 +118,132 @@
   </si>
   <si>
     <t>middle green bush</t>
+  </si>
+  <si>
+    <t>3 leaf tree</t>
+  </si>
+  <si>
+    <t>short 3 leaf tree</t>
+  </si>
+  <si>
+    <t>red box flower</t>
+  </si>
+  <si>
+    <t>4 leaf tree #2</t>
+  </si>
+  <si>
+    <t>dummy</t>
+  </si>
+  <si>
+    <t>double yellow flower</t>
+  </si>
+  <si>
+    <t>windmill (not door)</t>
+  </si>
+  <si>
+    <t>background</t>
+  </si>
+  <si>
+    <t>sky</t>
+  </si>
+  <si>
+    <t>cloud 1</t>
+  </si>
+  <si>
+    <t>cloud 2</t>
+  </si>
+  <si>
+    <t>dark mountains</t>
+  </si>
+  <si>
+    <t>light mountains</t>
+  </si>
+  <si>
+    <t>cloud 3</t>
+  </si>
+  <si>
+    <t>cloud 4</t>
+  </si>
+  <si>
+    <t>darkest mountains</t>
+  </si>
+  <si>
+    <t>fly</t>
+  </si>
+  <si>
+    <t>fly wings</t>
+  </si>
+  <si>
+    <t>interactive objects</t>
+  </si>
+  <si>
+    <t>door</t>
+  </si>
+  <si>
+    <t>fly side to side</t>
+  </si>
+  <si>
+    <t>fly circle</t>
+  </si>
+  <si>
+    <t>fly up and down</t>
+  </si>
+  <si>
+    <t>spinning windmill</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>flower colors</t>
+  </si>
+  <si>
+    <t>start screen</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>flypath</t>
+  </si>
+  <si>
+    <t>red flower</t>
+  </si>
+  <si>
+    <t>purple flower</t>
+  </si>
+  <si>
+    <t>yellow flower</t>
+  </si>
+  <si>
+    <t>tall yellow flower</t>
+  </si>
+  <si>
+    <t>fly particles</t>
+  </si>
+  <si>
+    <t>start button</t>
+  </si>
+  <si>
+    <t>start button changtes when hovering</t>
+  </si>
+  <si>
+    <t>die screen</t>
+  </si>
+  <si>
+    <t>game over</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>win screen</t>
+  </si>
+  <si>
+    <t>the end text</t>
+  </si>
+  <si>
+    <t>button replay</t>
   </si>
 </sst>
 </file>
@@ -481,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +799,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>29</v>
       </c>
@@ -683,43 +809,297 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="B57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Project assest list.xlsx
+++ b/Project assest list.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>In progress</t>
   </si>
@@ -225,9 +225,6 @@
     <t>start button</t>
   </si>
   <si>
-    <t>start button changtes when hovering</t>
-  </si>
-  <si>
     <t>die screen</t>
   </si>
   <si>
@@ -244,6 +241,12 @@
   </si>
   <si>
     <t>button replay</t>
+  </si>
+  <si>
+    <t>noise when click on button</t>
+  </si>
+  <si>
+    <t>noise when click button</t>
   </si>
 </sst>
 </file>
@@ -607,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,7 +1047,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1054,7 +1057,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1064,12 +1067,12 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1078,28 +1081,38 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>37</v>
+      <c r="B81" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>70</v>
+      <c r="A83" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1130,12 +1143,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B0C5AAC1B3A5834698B991C8B7BE0A43" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d8bfae07456ed53bf096f88a87e9c3b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2c372ca1-4d00-4da0-9d60-1d24f5b7546b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b3317282adf720fe49703ecb68c6f20" ns2:_="">
     <xsd:import namespace="2c372ca1-4d00-4da0-9d60-1d24f5b7546b"/>
@@ -1281,6 +1288,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB2AA6DC-D7DC-43A1-8030-BE38C0100496}">
   <ds:schemaRefs>
@@ -1290,22 +1303,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2515DB3B-AFD4-479F-850C-E15ACF9C8EE2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2c372ca1-4d00-4da0-9d60-1d24f5b7546b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D8B4A51-A72D-4F05-84AE-D0EEBFFC2F6D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1321,4 +1318,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2515DB3B-AFD4-479F-850C-E15ACF9C8EE2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2c372ca1-4d00-4da0-9d60-1d24f5b7546b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Project assest list.xlsx
+++ b/Project assest list.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="76">
   <si>
     <t>In progress</t>
   </si>
@@ -189,9 +189,6 @@
     <t>fly up and down</t>
   </si>
   <si>
-    <t>spinning windmill</t>
-  </si>
-  <si>
     <t>music</t>
   </si>
   <si>
@@ -247,6 +244,18 @@
   </si>
   <si>
     <t>noise when click button</t>
+  </si>
+  <si>
+    <t>liam</t>
+  </si>
+  <si>
+    <t>tommy</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>cam/lydia</t>
   </si>
 </sst>
 </file>
@@ -612,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,10 +679,16 @@
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -681,10 +696,16 @@
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -692,10 +713,16 @@
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -713,8 +740,12 @@
       <c r="A8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -724,10 +755,16 @@
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -735,10 +772,16 @@
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -746,18 +789,28 @@
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -766,8 +819,12 @@
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -776,9 +833,13 @@
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
@@ -786,28 +847,44 @@
       <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -816,36 +893,101 @@
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="C19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="C20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="C21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="C22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="C23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -856,263 +998,603 @@
       <c r="B28" t="s">
         <v>38</v>
       </c>
+      <c r="C28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>39</v>
       </c>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>40</v>
       </c>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>41</v>
       </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B57" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58" t="s">
+        <v>74</v>
+      </c>
+      <c r="F58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="B61" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="C62" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62" t="s">
+        <v>74</v>
+      </c>
+      <c r="F62" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>72</v>
+      </c>
+      <c r="E63" t="s">
+        <v>74</v>
+      </c>
+      <c r="F63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>72</v>
+      </c>
+      <c r="E64" t="s">
+        <v>74</v>
+      </c>
+      <c r="F64" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65" t="s">
+        <v>74</v>
+      </c>
+      <c r="F65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+      <c r="C66" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+      <c r="C67" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+      <c r="C71" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" t="s">
+        <v>74</v>
+      </c>
+      <c r="F71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+      <c r="C72" t="s">
+        <v>72</v>
+      </c>
+      <c r="E72" t="s">
+        <v>74</v>
+      </c>
+      <c r="F72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73" t="s">
+        <v>73</v>
+      </c>
+      <c r="E73" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74" t="s">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>72</v>
+      </c>
+      <c r="E77" t="s">
+        <v>74</v>
+      </c>
+      <c r="F77" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
+        <v>65</v>
+      </c>
+      <c r="C78" t="s">
+        <v>72</v>
+      </c>
+      <c r="E78" t="s">
+        <v>74</v>
+      </c>
+      <c r="F78" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+      <c r="C79" t="s">
+        <v>72</v>
+      </c>
+      <c r="E79" t="s">
+        <v>74</v>
+      </c>
+      <c r="F79" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>53</v>
+      </c>
+      <c r="C80" t="s">
+        <v>73</v>
+      </c>
+      <c r="E80" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" t="s">
+        <v>73</v>
+      </c>
+      <c r="E81" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>72</v>
+      </c>
+      <c r="E84" t="s">
+        <v>74</v>
+      </c>
+      <c r="F84" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
+        <v>68</v>
+      </c>
+      <c r="C85" t="s">
+        <v>72</v>
+      </c>
+      <c r="E85" t="s">
+        <v>74</v>
+      </c>
+      <c r="F85" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>72</v>
+      </c>
+      <c r="E86" t="s">
+        <v>74</v>
+      </c>
+      <c r="F86" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="C87" t="s">
+        <v>73</v>
+      </c>
+      <c r="E87" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="C88" t="s">
+        <v>73</v>
+      </c>
+      <c r="E88" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1143,6 +1625,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B0C5AAC1B3A5834698B991C8B7BE0A43" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d8bfae07456ed53bf096f88a87e9c3b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2c372ca1-4d00-4da0-9d60-1d24f5b7546b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b3317282adf720fe49703ecb68c6f20" ns2:_="">
     <xsd:import namespace="2c372ca1-4d00-4da0-9d60-1d24f5b7546b"/>
@@ -1288,12 +1776,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB2AA6DC-D7DC-43A1-8030-BE38C0100496}">
   <ds:schemaRefs>
@@ -1303,6 +1785,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2515DB3B-AFD4-479F-850C-E15ACF9C8EE2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2c372ca1-4d00-4da0-9d60-1d24f5b7546b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D8B4A51-A72D-4F05-84AE-D0EEBFFC2F6D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1318,20 +1816,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2515DB3B-AFD4-479F-850C-E15ACF9C8EE2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2c372ca1-4d00-4da0-9d60-1d24f5b7546b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>